--- a/Weekly Report 4 NANDHINI.xlsx
+++ b/Weekly Report 4 NANDHINI.xlsx
@@ -51,9 +51,6 @@
     <t>iNautix Technologies</t>
   </si>
   <si>
-    <t>EIE</t>
-  </si>
-  <si>
     <t>Working in ebox tool ( java and sql)</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>NANDHINI M</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>42888</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -559,7 +559,7 @@
         <v>42918</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -574,7 +574,7 @@
         <v>42949</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -589,7 +589,7 @@
         <v>42980</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -604,7 +604,7 @@
         <v>43010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
